--- a/TestData/interface.xlsx
+++ b/TestData/interface.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F526EE2-8A3B-435C-8538-2E61BD610976}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C80CE7-9ED1-4DC1-ABE2-DD75676C0689}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3630" yWindow="3630" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -593,7 +593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
@@ -702,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F41B8FC2-8923-42F2-9DED-E84BDE0C43CC}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -793,7 +793,7 @@
         <v>18</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/TestData/interface.xlsx
+++ b/TestData/interface.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C80CE7-9ED1-4DC1-ABE2-DD75676C0689}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65213682-5224-4168-A53D-3C962F079DB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3630" yWindow="3630" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/TestData/interface.xlsx
+++ b/TestData/interface.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65213682-5224-4168-A53D-3C962F079DB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73991C9D-5B1A-4B46-BD3A-06D43FF2FE61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3630" yWindow="3630" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -703,7 +703,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -793,7 +793,7 @@
         <v>18</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/TestData/interface.xlsx
+++ b/TestData/interface.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73991C9D-5B1A-4B46-BD3A-06D43FF2FE61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6216C1-8EFB-4D0D-937E-9F828E360278}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="3630" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="userinfo" sheetId="2" r:id="rId2"/>
+    <sheet name="user" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
   <si>
     <t>url</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -115,7 +115,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>正常修改</t>
+      <t>昵称为空</t>
     </r>
     <r>
       <rPr>
@@ -129,6 +129,142 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>"code":99</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"newUserName":""}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"text":"0.0012@qq.com","password":""}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>account/websignin(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.199999999999999"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>密码为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.199999999999999"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"authorization":"Bearer "}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://uat.cubeace.com/gameflaskapi/api/v1/user/orderHistory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"pageIndex":"1","pageSize":"10"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"pageIndex":"0","pageSize":"10"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>user/orderHistory(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.199999999999999"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>页码为0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.199999999999999"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>user/setUserLanguage(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.199999999999999"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正常修改默认语言</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.199999999999999"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>user/orderHistory(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.199999999999999"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正常获取订单记录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.199999999999999"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>user/updateUserName(</t>
     </r>
@@ -140,7 +276,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>昵称为空</t>
+      <t>正常修改用户昵称</t>
     </r>
     <r>
       <rPr>
@@ -154,20 +290,8 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>"code":99</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"newUserName":""}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"text":"0.0012@qq.com","password":""}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>account/websignin(</t>
+    <r>
+      <t>user/setUserLanguage(</t>
     </r>
     <r>
       <rPr>
@@ -177,7 +301,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>密码为空</t>
+      <t>语言类型为3</t>
     </r>
     <r>
       <rPr>
@@ -191,15 +315,48 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>请求头</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"authorization":"Bearer "}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
+    <t>https://uat.cubeace.com/gameflaskapi/api/v1/user/setUserLanguage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"languageType":"1"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"languageType":"3"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://uat.cubeace.com/gameflaskapi/api/v1/user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>user(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.199999999999999"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取用户信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.199999999999999"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -594,7 +751,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -625,7 +782,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>2</v>
@@ -651,7 +808,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>11</v>
@@ -665,7 +822,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -678,10 +835,10 @@
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -700,10 +857,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F41B8FC2-8923-42F2-9DED-E84BDE0C43CC}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -735,7 +892,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>2</v>
@@ -749,7 +906,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
@@ -761,7 +918,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>14</v>
@@ -775,7 +932,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -787,25 +944,157 @@
         <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{5C58007A-86A3-4DC9-8FC1-6D35A15788FA}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{993E5460-5DC9-4D47-ADF9-B90382E61AD0}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{22AEAE8F-E7F3-4CCB-A77C-D24ACEFA1947}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{C7CE0400-4224-4371-95DB-49B0A1652D11}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{46C1E855-37E4-48CE-BE08-03CEF31C9EB1}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{A13EC4AB-C8EB-4FB8-AF52-66E3B4EAD862}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{9A3DC130-AF40-465B-B6E2-3BB61847D10E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/TestData/interface.xlsx
+++ b/TestData/interface.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6216C1-8EFB-4D0D-937E-9F828E360278}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2BDE9F-3CF2-4A72-A33D-0EAD23FEF11C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="user" sheetId="2" r:id="rId2"/>
+    <sheet name="account" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="57">
   <si>
     <t>url</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -51,15 +52,442 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>接口信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://uat.cubeace.com/gameflaskapi/api/v1/account/websignin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"code":1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"text":"0.0012@qq.com","password":"12345678"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>account/websignin(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.199999999999999"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正常登录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.199999999999999"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://uat.cubeace.com/gameflaskapi/api/v1/user/updateUserName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"newUserName":"1.22229"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>user/updateUserName(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.199999999999999"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>昵称为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.199999999999999"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"code":99</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"newUserName":""}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"text":"0.0012@qq.com","password":""}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>account/websignin(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.199999999999999"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>密码为空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.199999999999999"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"authorization":"Bearer "}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://uat.cubeace.com/gameflaskapi/api/v1/user/orderHistory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"pageIndex":"1","pageSize":"10"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"pageIndex":"0","pageSize":"10"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>user/orderHistory(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.199999999999999"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>页码为0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.199999999999999"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>user/setUserLanguage(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.199999999999999"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正常修改默认语言</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.199999999999999"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>user/orderHistory(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.199999999999999"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正常获取订单记录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.199999999999999"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>user/updateUserName(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.199999999999999"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正常修改用户昵称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.199999999999999"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>user/setUserLanguage(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.199999999999999"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>语言类型为3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.199999999999999"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://uat.cubeace.com/gameflaskapi/api/v1/user/setUserLanguage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"languageType":"1"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"languageType":"3"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://uat.cubeace.com/gameflaskapi/api/v1/user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>user(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.199999999999999"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取用户信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.199999999999999"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口序列</t>
+  </si>
+  <si>
+    <t>接口信息</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>是否执行</t>
+  </si>
+  <si>
+    <t>请求方式</t>
+  </si>
+  <si>
+    <t>请求头</t>
+  </si>
+  <si>
+    <t>请求数据</t>
+  </si>
+  <si>
+    <t>预期结果</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>"code":99</t>
+  </si>
+  <si>
+    <t>https://uat.cubeace.com/gameflaskapi/api/v1/account/bind</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>account/bind(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.199999999999999"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正常绑定手机号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.199999999999999"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>account/bind(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.199999999999999"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正常绑定邮箱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.199999999999999"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>account/bind(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.199999999999999"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>绑定类型为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.199999999999999"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="2"/>
+      </rPr>
+      <t>Facebook</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.199999999999999"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"text": "1.23@qq.com","scene": 2,"bindType": 1,"authenticationCode": ""}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"text": "66664546","scene": 2,"countryCode": "+853","bindType": 3,"authenticationCode": ""}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>yes</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>接口信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://uat.cubeace.com/gameflaskapi/api/v1/account/websignin</t>
+    <t>None</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -67,296 +495,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{"text":"0.0012@qq.com","password":"12345678"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>account/websignin(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.199999999999999"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>正常登录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.199999999999999"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://uat.cubeace.com/gameflaskapi/api/v1/user/updateUserName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"newUserName":"1.22229"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>user/updateUserName(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.199999999999999"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>昵称为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.199999999999999"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"code":99</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"newUserName":""}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"text":"0.0012@qq.com","password":""}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>account/websignin(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.199999999999999"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>密码为空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.199999999999999"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求头</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"authorization":"Bearer "}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://uat.cubeace.com/gameflaskapi/api/v1/user/orderHistory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"pageIndex":"1","pageSize":"10"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"pageIndex":"0","pageSize":"10"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>user/orderHistory(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.199999999999999"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>页码为0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.199999999999999"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>user/setUserLanguage(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.199999999999999"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>正常修改默认语言</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.199999999999999"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>user/orderHistory(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.199999999999999"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>正常获取订单记录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.199999999999999"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>user/updateUserName(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.199999999999999"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>正常修改用户昵称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.199999999999999"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>user/setUserLanguage(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.199999999999999"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>语言类型为3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.199999999999999"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://uat.cubeace.com/gameflaskapi/api/v1/user/setUserLanguage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"languageType":"1"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"languageType":"3"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://uat.cubeace.com/gameflaskapi/api/v1/user</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>user(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.199999999999999"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>获取用户信息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.199999999999999"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
+    <t>{"text": "66664546","scene": 2,"countryCode": "+853","bindType": 2,"authenticationCode": ""}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -364,7 +507,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,6 +549,19 @@
       <name val="隶书"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.199999999999999"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.199999999999999"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -751,7 +907,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -770,7 +926,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -782,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>2</v>
@@ -796,25 +952,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="44.45" customHeight="1" x14ac:dyDescent="0.15">
@@ -822,23 +978,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="G3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -859,7 +1017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F41B8FC2-8923-42F2-9DED-E84BDE0C43CC}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D8"/>
     </sheetView>
   </sheetViews>
@@ -880,7 +1038,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -892,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>2</v>
@@ -906,25 +1064,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -932,25 +1090,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -958,25 +1116,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -984,25 +1142,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1010,25 +1168,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1036,25 +1194,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1062,25 +1220,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1097,4 +1255,140 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B26A1AE0-3AD3-4310-9161-4127B1AC2B04}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="3" max="3" width="64.25" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="37.375" customWidth="1"/>
+    <col min="7" max="7" width="50.25" customWidth="1"/>
+    <col min="8" max="8" width="13.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{2828D493-A057-4723-868D-507FBD81749C}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{DD552234-93C4-4360-987A-D576B627F445}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{8EDAFD4F-52FE-4B67-83D3-C7129BE11313}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+</worksheet>
 </file>
--- a/TestData/interface.xlsx
+++ b/TestData/interface.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2BDE9F-3CF2-4A72-A33D-0EAD23FEF11C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26A092B-522D-49EA-8892-F85EE2CB2D7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="61">
   <si>
     <t>url</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -378,9 +378,6 @@
   </si>
   <si>
     <t>post</t>
-  </si>
-  <si>
-    <t>"code":99</t>
   </si>
   <si>
     <t>https://uat.cubeace.com/gameflaskapi/api/v1/account/bind</t>
@@ -471,14 +468,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{"text": "1.23@qq.com","scene": 2,"bindType": 1,"authenticationCode": ""}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"text": "66664546","scene": 2,"countryCode": "+853","bindType": 3,"authenticationCode": ""}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>no</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -495,11 +484,60 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{"text": "66664546","scene": 2,"countryCode": "+853","bindType": 2,"authenticationCode": ""}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"code":500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"text": "66664546","countryCode": "+853","bindType": 4,"authenticationCode": ""}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"text": "1.25@qq.com","bindType": 1,"authenticationCode": ""}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://uat.cubeace.com/gameflaskapi/api/v1/account/updatePasswordByOldPwd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>account/updatePasswordByOldPwd(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.199999999999999"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通过旧密码修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.199999999999999"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"oldPassword":"12345678","password":"123456789","confirmPassword":"123456789"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"code":1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"text": "66664548","countryCode": "+853","bindType": 2,"authenticationCode": ""}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -906,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -958,13 +996,13 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>10</v>
@@ -984,13 +1022,13 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>17</v>
@@ -1015,17 +1053,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F41B8FC2-8923-42F2-9DED-E84BDE0C43CC}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="39.75" customWidth="1"/>
-    <col min="3" max="3" width="71.25" customWidth="1"/>
+    <col min="3" max="3" width="81.875" customWidth="1"/>
     <col min="4" max="4" width="15.125" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
     <col min="6" max="6" width="35" customWidth="1"/>
@@ -1070,7 +1108,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
@@ -1096,7 +1134,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>4</v>
@@ -1122,7 +1160,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>4</v>
@@ -1148,7 +1186,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>4</v>
@@ -1174,7 +1212,7 @@
         <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>4</v>
@@ -1200,7 +1238,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>4</v>
@@ -1226,7 +1264,7 @@
         <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>34</v>
@@ -1239,6 +1277,32 @@
       </c>
       <c r="H8" s="2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1251,9 +1315,10 @@
     <hyperlink ref="C6" r:id="rId5" xr:uid="{46C1E855-37E4-48CE-BE08-03CEF31C9EB1}"/>
     <hyperlink ref="C7" r:id="rId6" xr:uid="{A13EC4AB-C8EB-4FB8-AF52-66E3B4EAD862}"/>
     <hyperlink ref="C8" r:id="rId7" xr:uid="{9A3DC130-AF40-465B-B6E2-3BB61847D10E}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{988856EB-CD3A-4B7D-89F6-D9318277AF00}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -1261,15 +1326,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B26A1AE0-3AD3-4310-9161-4127B1AC2B04}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="64.25" customWidth="1"/>
+    <col min="3" max="3" width="79.875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
     <col min="6" max="6" width="37.375" customWidth="1"/>
@@ -1308,25 +1373,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1334,22 +1399,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>9</v>
@@ -1360,25 +1425,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/interface.xlsx
+++ b/TestData/interface.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26A092B-522D-49EA-8892-F85EE2CB2D7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7125C94C-302A-47D1-B88E-8D44E3769BE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -944,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -996,7 +996,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
@@ -1022,7 +1022,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>4</v>
@@ -1055,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F41B8FC2-8923-42F2-9DED-E84BDE0C43CC}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1326,8 +1326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B26A1AE0-3AD3-4310-9161-4127B1AC2B04}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/TestData/interface.xlsx
+++ b/TestData/interface.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7125C94C-302A-47D1-B88E-8D44E3769BE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3495DD5-8605-45CA-9718-5A7183542AE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="60">
   <si>
     <t>url</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -465,10 +465,6 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -944,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -996,13 +992,13 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>10</v>
@@ -1013,7 +1009,7 @@
     </row>
     <row r="3" spans="1:8" ht="44.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>18</v>
@@ -1022,13 +1018,13 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>17</v>
@@ -1055,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F41B8FC2-8923-42F2-9DED-E84BDE0C43CC}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1284,10 +1280,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>48</v>
@@ -1299,10 +1295,10 @@
         <v>20</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1324,10 +1320,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B26A1AE0-3AD3-4310-9161-4127B1AC2B04}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1379,19 +1375,19 @@
         <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1405,16 +1401,16 @@
         <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>9</v>
@@ -1431,20 +1427,30 @@
         <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/TestData/interface.xlsx
+++ b/TestData/interface.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3495DD5-8605-45CA-9718-5A7183542AE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C493DC3-5C3D-4794-A0EF-03484F66253D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="61">
   <si>
     <t>url</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -64,10 +64,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{"text":"0.0012@qq.com","password":"12345678"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>account/websignin(</t>
     </r>
@@ -94,10 +90,6 @@
   </si>
   <si>
     <t>https://uat.cubeace.com/gameflaskapi/api/v1/user/updateUserName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"newUserName":"1.22229"}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -468,6 +460,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>yes</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -534,6 +530,14 @@
   </si>
   <si>
     <t>{"text": "66664548","countryCode": "+853","bindType": 2,"authenticationCode": ""}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"text":"0.0012@qq.com","password":"123456789"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"newUserName":"1.22269"}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -940,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -972,7 +976,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>2</v>
@@ -986,22 +990,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>9</v>
@@ -1012,25 +1016,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1052,7 +1056,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D9"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1084,7 +1088,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>2</v>
@@ -1098,22 +1102,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>9</v>
@@ -1124,25 +1128,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1150,22 +1154,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>9</v>
@@ -1176,25 +1180,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1202,22 +1206,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>9</v>
@@ -1228,25 +1232,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1254,22 +1258,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F8" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>9</v>
@@ -1280,25 +1284,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1340,28 +1344,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1369,25 +1373,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1395,22 +1399,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>9</v>
@@ -1421,25 +1425,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/TestData/interface.xlsx
+++ b/TestData/interface.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C493DC3-5C3D-4794-A0EF-03484F66253D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5003DD4-251D-4D5A-8AE4-D4D4115C8C81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="62">
   <si>
     <t>url</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -460,44 +460,89 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"code":1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"code":500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"text": "66664546","countryCode": "+853","bindType": 4,"authenticationCode": ""}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"text": "1.25@qq.com","bindType": 1,"authenticationCode": ""}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://uat.cubeace.com/gameflaskapi/api/v1/account/updatePasswordByOldPwd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>account/updatePasswordByOldPwd(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.199999999999999"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通过旧密码修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.199999999999999"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"code":1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"text": "66664548","countryCode": "+853","bindType": 2,"authenticationCode": ""}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"text":"0.0012@qq.com","password":"123456789"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"newUserName":"1.22269"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>no</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>yes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"code":1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"code":500</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"text": "66664546","countryCode": "+853","bindType": 4,"authenticationCode": ""}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"text": "1.25@qq.com","bindType": 1,"authenticationCode": ""}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://uat.cubeace.com/gameflaskapi/api/v1/account/updatePasswordByOldPwd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>account/updatePasswordByOldPwd(</t>
+    <t>{"oldPassword":"123456789","password":"123456789","confirmPassword":"123456789"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>user/setUserLanguage(</t>
     </r>
     <r>
       <rPr>
@@ -507,7 +552,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>通过旧密码修改</t>
+      <t>修改默认语言</t>
     </r>
     <r>
       <rPr>
@@ -518,26 +563,6 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"oldPassword":"12345678","password":"123456789","confirmPassword":"123456789"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"code":1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"text": "66664548","countryCode": "+853","bindType": 2,"authenticationCode": ""}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"text":"0.0012@qq.com","password":"123456789"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"newUserName":"1.22269"}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -944,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -996,16 +1021,16 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>9</v>
@@ -1022,13 +1047,13 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>15</v>
@@ -1053,10 +1078,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F41B8FC2-8923-42F2-9DED-E84BDE0C43CC}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1108,7 +1133,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
@@ -1117,7 +1142,7 @@
         <v>18</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>9</v>
@@ -1134,7 +1159,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>4</v>
@@ -1160,7 +1185,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>4</v>
@@ -1186,7 +1211,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>4</v>
@@ -1212,7 +1237,7 @@
         <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>4</v>
@@ -1238,7 +1263,7 @@
         <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>4</v>
@@ -1264,7 +1289,7 @@
         <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>32</v>
@@ -1284,13 +1309,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>41</v>
@@ -1299,10 +1324,36 @@
         <v>18</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1314,11 +1365,12 @@
     <hyperlink ref="C5" r:id="rId4" xr:uid="{C7CE0400-4224-4371-95DB-49B0A1652D11}"/>
     <hyperlink ref="C6" r:id="rId5" xr:uid="{46C1E855-37E4-48CE-BE08-03CEF31C9EB1}"/>
     <hyperlink ref="C7" r:id="rId6" xr:uid="{A13EC4AB-C8EB-4FB8-AF52-66E3B4EAD862}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{9A3DC130-AF40-465B-B6E2-3BB61847D10E}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{988856EB-CD3A-4B7D-89F6-D9318277AF00}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{988856EB-CD3A-4B7D-89F6-D9318277AF00}"/>
+    <hyperlink ref="C8" r:id="rId8" xr:uid="{9A3DC130-AF40-465B-B6E2-3BB61847D10E}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{26C03D31-FCCA-458D-A64C-41B79A95986D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -1327,7 +1379,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1379,19 +1431,19 @@
         <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1405,16 +1457,16 @@
         <v>42</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>9</v>
@@ -1431,19 +1483,19 @@
         <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
